--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H2">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I2">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J2">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.07195549999999999</v>
+        <v>0.204759</v>
       </c>
       <c r="N2">
-        <v>0.143911</v>
+        <v>0.409518</v>
       </c>
       <c r="O2">
-        <v>0.03873632163709056</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P2">
-        <v>0.03266745843446078</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q2">
-        <v>0.6203095131589998</v>
+        <v>2.135758815882</v>
       </c>
       <c r="R2">
-        <v>2.481238052635999</v>
+        <v>8.543035263527999</v>
       </c>
       <c r="S2">
-        <v>0.01448469846875585</v>
+        <v>0.07569045350628778</v>
       </c>
       <c r="T2">
-        <v>0.009664566978165656</v>
+        <v>0.0562417942484917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H3">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I3">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J3">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.407406</v>
       </c>
       <c r="O3">
-        <v>0.2525529968289247</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P3">
-        <v>0.3194778509315529</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q3">
-        <v>4.044292795209333</v>
+        <v>4.893362069596</v>
       </c>
       <c r="R3">
-        <v>24.265756771256</v>
+        <v>29.360172417576</v>
       </c>
       <c r="S3">
-        <v>0.09443730978691828</v>
+        <v>0.1734188296281164</v>
       </c>
       <c r="T3">
-        <v>0.09451653836379577</v>
+        <v>0.1932883015547368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,113 +667,113 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H4">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I4">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J4">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03556466666666667</v>
+        <v>0.7764725</v>
       </c>
       <c r="N4">
-        <v>0.106694</v>
+        <v>1.552945</v>
       </c>
       <c r="O4">
-        <v>0.01914578269786067</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P4">
-        <v>0.02421928699130962</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q4">
-        <v>0.3065936733906667</v>
+        <v>8.099072505555</v>
       </c>
       <c r="R4">
-        <v>1.839562040344</v>
+        <v>32.39629002222</v>
       </c>
       <c r="S4">
-        <v>0.007159195236062273</v>
+        <v>0.2870279482716806</v>
       </c>
       <c r="T4">
-        <v>0.007165201472913166</v>
+        <v>0.2132761274699133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.620737999999999</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H5">
-        <v>17.241476</v>
+        <v>15.23399</v>
       </c>
       <c r="I5">
-        <v>0.3739306639504602</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J5">
-        <v>0.2958469204929191</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.095428</v>
+        <v>0.204759</v>
       </c>
       <c r="N5">
-        <v>2.190856</v>
+        <v>0.409518</v>
       </c>
       <c r="O5">
-        <v>0.5897096307895137</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P5">
-        <v>0.4973191577842487</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q5">
-        <v>9.443397785864001</v>
+        <v>1.03976551947</v>
       </c>
       <c r="R5">
-        <v>37.773591143456</v>
+        <v>6.23859311682</v>
       </c>
       <c r="S5">
-        <v>0.2205105137791036</v>
+        <v>0.03684888158890005</v>
       </c>
       <c r="T5">
-        <v>0.1471303413326021</v>
+        <v>0.04107084422022496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.620737999999999</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H6">
-        <v>17.241476</v>
+        <v>15.23399</v>
       </c>
       <c r="I6">
-        <v>0.3739306639504602</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J6">
-        <v>0.2958469204929191</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1854883333333334</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N6">
-        <v>0.5564650000000001</v>
+        <v>1.407406</v>
       </c>
       <c r="O6">
-        <v>0.09985526804661032</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P6">
-        <v>0.1263162458584279</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q6">
-        <v>1.599046323723333</v>
+        <v>2.382267658882222</v>
       </c>
       <c r="R6">
-        <v>9.594277942340002</v>
+        <v>21.44040892994</v>
       </c>
       <c r="S6">
-        <v>0.03733894667962016</v>
+        <v>0.08442663007325273</v>
       </c>
       <c r="T6">
-        <v>0.03737027234544234</v>
+        <v>0.141149723774315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J7">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07195549999999999</v>
+        <v>0.7764725</v>
       </c>
       <c r="N7">
-        <v>0.143911</v>
+        <v>1.552945</v>
       </c>
       <c r="O7">
-        <v>0.03873632163709056</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P7">
-        <v>0.03266745843446078</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q7">
-        <v>0.3653897891483333</v>
+        <v>3.942924766758333</v>
       </c>
       <c r="R7">
-        <v>2.192338734889999</v>
+        <v>23.65754860055</v>
       </c>
       <c r="S7">
-        <v>0.008532129214692985</v>
+        <v>0.1397357049484379</v>
       </c>
       <c r="T7">
-        <v>0.008539287280259869</v>
+        <v>0.1557459310154309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>5.077996666666666</v>
+        <v>0.143788</v>
       </c>
       <c r="H8">
-        <v>15.23399</v>
+        <v>0.431364</v>
       </c>
       <c r="I8">
-        <v>0.2202617299243858</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J8">
-        <v>0.2614004177090131</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.4691353333333333</v>
+        <v>0.204759</v>
       </c>
       <c r="N8">
-        <v>1.407406</v>
+        <v>0.409518</v>
       </c>
       <c r="O8">
-        <v>0.2525529968289247</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P8">
-        <v>0.3194778509315529</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q8">
-        <v>2.382267658882222</v>
+        <v>0.029441887092</v>
       </c>
       <c r="R8">
-        <v>21.44040892994</v>
+        <v>0.176651322552</v>
       </c>
       <c r="S8">
-        <v>0.05562775997912689</v>
+        <v>0.001043408913732665</v>
       </c>
       <c r="T8">
-        <v>0.08351164368228574</v>
+        <v>0.001162957547314467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.143788</v>
+      </c>
+      <c r="H9">
+        <v>0.431364</v>
+      </c>
+      <c r="I9">
+        <v>0.007390765153581618</v>
+      </c>
+      <c r="J9">
+        <v>0.009569822540183962</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.077996666666666</v>
-      </c>
-      <c r="H9">
-        <v>15.23399</v>
-      </c>
-      <c r="I9">
-        <v>0.2202617299243858</v>
-      </c>
-      <c r="J9">
-        <v>0.2614004177090131</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03556466666666667</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N9">
-        <v>0.106694</v>
+        <v>1.407406</v>
       </c>
       <c r="O9">
-        <v>0.01914578269786067</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P9">
-        <v>0.02421928699130962</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q9">
-        <v>0.1805972587844444</v>
+        <v>0.06745603130933332</v>
       </c>
       <c r="R9">
-        <v>1.62537532906</v>
+        <v>0.6071042817839999</v>
       </c>
       <c r="S9">
-        <v>0.004217083217787167</v>
+        <v>0.00239061525279448</v>
       </c>
       <c r="T9">
-        <v>0.006330931736142801</v>
+        <v>0.003996780189968853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,22 +1033,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>5.077996666666666</v>
+        <v>0.143788</v>
       </c>
       <c r="H10">
-        <v>15.23399</v>
+        <v>0.431364</v>
       </c>
       <c r="I10">
-        <v>0.2202617299243858</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J10">
-        <v>0.2614004177090131</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.095428</v>
+        <v>0.7764725</v>
       </c>
       <c r="N10">
-        <v>2.190856</v>
+        <v>1.552945</v>
       </c>
       <c r="O10">
-        <v>0.5897096307895137</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P10">
-        <v>0.4973191577842487</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q10">
-        <v>5.562579732573333</v>
+        <v>0.11164742783</v>
       </c>
       <c r="R10">
-        <v>33.37547839544</v>
+        <v>0.66988456698</v>
       </c>
       <c r="S10">
-        <v>0.1298904634307692</v>
+        <v>0.003956740987054473</v>
       </c>
       <c r="T10">
-        <v>0.1299994355794972</v>
+        <v>0.004410084802900642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.077996666666666</v>
+        <v>2.8592275</v>
       </c>
       <c r="H11">
-        <v>15.23399</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I11">
-        <v>0.2202617299243858</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J11">
-        <v>0.2614004177090131</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.1854883333333334</v>
+        <v>0.204759</v>
       </c>
       <c r="N11">
-        <v>0.5564650000000001</v>
+        <v>0.409518</v>
       </c>
       <c r="O11">
-        <v>0.09985526804661032</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P11">
-        <v>0.1263162458584279</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q11">
-        <v>0.9419091383722223</v>
+        <v>0.5854525636725001</v>
       </c>
       <c r="R11">
-        <v>8.477182245350001</v>
+        <v>2.34181025469</v>
       </c>
       <c r="S11">
-        <v>0.02199429408200964</v>
+        <v>0.02074820889009906</v>
       </c>
       <c r="T11">
-        <v>0.03301911943082746</v>
+        <v>0.01541695737527506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.264576</v>
+        <v>2.8592275</v>
       </c>
       <c r="H12">
-        <v>0.793728</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I12">
-        <v>0.01147617284568409</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J12">
-        <v>0.01361959872281258</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07195549999999999</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N12">
-        <v>0.143911</v>
+        <v>1.407406</v>
       </c>
       <c r="O12">
-        <v>0.03873632163709056</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P12">
-        <v>0.03266745843446078</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q12">
-        <v>0.019037698368</v>
+        <v>1.341364646288333</v>
       </c>
       <c r="R12">
-        <v>0.114226190208</v>
+        <v>8.048187877730001</v>
       </c>
       <c r="S12">
-        <v>0.0004445447225132637</v>
+        <v>0.04753743617485068</v>
       </c>
       <c r="T12">
-        <v>0.0004449176751715149</v>
+        <v>0.05298404053474176</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.264576</v>
+        <v>2.8592275</v>
       </c>
       <c r="H13">
-        <v>0.793728</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I13">
-        <v>0.01147617284568409</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J13">
-        <v>0.01361959872281258</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4691353333333333</v>
+        <v>0.7764725</v>
       </c>
       <c r="N13">
-        <v>1.407406</v>
+        <v>1.552945</v>
       </c>
       <c r="O13">
-        <v>0.2525529968289247</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P13">
-        <v>0.3194778509315529</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q13">
-        <v>0.124121949952</v>
+        <v>2.22011152499375</v>
       </c>
       <c r="R13">
-        <v>1.117097549568</v>
+        <v>8.880446099975002</v>
       </c>
       <c r="S13">
-        <v>0.002898341844304245</v>
+        <v>0.07867988038336504</v>
       </c>
       <c r="T13">
-        <v>0.004351160130514284</v>
+        <v>0.05846308799893175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.264576</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H14">
-        <v>0.793728</v>
+        <v>2.393869</v>
       </c>
       <c r="I14">
-        <v>0.01147617284568409</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J14">
-        <v>0.01361959872281258</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.03556466666666667</v>
+        <v>0.204759</v>
       </c>
       <c r="N14">
-        <v>0.106694</v>
+        <v>0.409518</v>
       </c>
       <c r="O14">
-        <v>0.01914578269786067</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P14">
-        <v>0.02421928699130962</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q14">
-        <v>0.009409557248</v>
+        <v>0.1633887408569999</v>
       </c>
       <c r="R14">
-        <v>0.08468601523200001</v>
+        <v>0.9803324451419998</v>
       </c>
       <c r="S14">
-        <v>0.0002197203115065569</v>
+        <v>0.00579043279668285</v>
       </c>
       <c r="T14">
-        <v>0.0003298569701742717</v>
+        <v>0.006453871952300461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.264576</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H15">
-        <v>0.793728</v>
+        <v>2.393869</v>
       </c>
       <c r="I15">
-        <v>0.01147617284568409</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J15">
-        <v>0.01361959872281258</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.095428</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N15">
-        <v>2.190856</v>
+        <v>1.407406</v>
       </c>
       <c r="O15">
-        <v>0.5897096307895137</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P15">
-        <v>0.4973191577842487</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q15">
-        <v>0.289823958528</v>
+        <v>0.3743495104237777</v>
       </c>
       <c r="R15">
-        <v>1.738943751168</v>
+        <v>3.369145593813999</v>
       </c>
       <c r="S15">
-        <v>0.006767609651705005</v>
+        <v>0.01326679960449149</v>
       </c>
       <c r="T15">
-        <v>0.006773287366188579</v>
+        <v>0.02218026584643259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.264576</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H16">
-        <v>0.793728</v>
+        <v>2.393869</v>
       </c>
       <c r="I16">
-        <v>0.01147617284568409</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J16">
-        <v>0.01361959872281258</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1854883333333334</v>
+        <v>0.7764725</v>
       </c>
       <c r="N16">
-        <v>0.5564650000000001</v>
+        <v>1.552945</v>
       </c>
       <c r="O16">
-        <v>0.09985526804661032</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P16">
-        <v>0.1263162458584279</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q16">
-        <v>0.04907576128</v>
+        <v>0.6195911490341666</v>
       </c>
       <c r="R16">
-        <v>0.4416818515200001</v>
+        <v>3.717546894204999</v>
       </c>
       <c r="S16">
-        <v>0.001145956315655015</v>
+        <v>0.02195806694564012</v>
       </c>
       <c r="T16">
-        <v>0.001720376580763924</v>
+        <v>0.02447391367159744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1470,19 +1470,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.26402</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H17">
-        <v>4.52804</v>
+        <v>0.43657</v>
       </c>
       <c r="I17">
-        <v>0.09820348348333063</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J17">
-        <v>0.07769675228900108</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.07195549999999999</v>
+        <v>0.204759</v>
       </c>
       <c r="N17">
-        <v>0.143911</v>
+        <v>0.409518</v>
       </c>
       <c r="O17">
-        <v>0.03873632163709056</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P17">
-        <v>0.03266745843446078</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q17">
-        <v>0.16290869111</v>
+        <v>0.02979721221</v>
       </c>
       <c r="R17">
-        <v>0.6516347644399999</v>
+        <v>0.17878327326</v>
       </c>
       <c r="S17">
-        <v>0.003804041722093006</v>
+        <v>0.001056001496342461</v>
       </c>
       <c r="T17">
-        <v>0.002538155425893538</v>
+        <v>0.001176992925768207</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1532,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.26402</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H18">
-        <v>4.52804</v>
+        <v>0.43657</v>
       </c>
       <c r="I18">
-        <v>0.09820348348333063</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J18">
-        <v>0.07769675228900108</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,828 +1559,84 @@
         <v>1.407406</v>
       </c>
       <c r="O18">
-        <v>0.2525529968289247</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P18">
-        <v>0.3194778509315529</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q18">
-        <v>1.062131777373333</v>
+        <v>0.0682701374911111</v>
       </c>
       <c r="R18">
-        <v>6.372790664239999</v>
+        <v>0.6144312374199999</v>
       </c>
       <c r="S18">
-        <v>0.02480158405275497</v>
+        <v>0.002419466856094821</v>
       </c>
       <c r="T18">
-        <v>0.02482239144565128</v>
+        <v>0.00404501610596782</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.26402</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H19">
-        <v>4.52804</v>
+        <v>0.43657</v>
       </c>
       <c r="I19">
-        <v>0.09820348348333063</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J19">
-        <v>0.07769675228900108</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03556466666666667</v>
+        <v>0.7764725</v>
       </c>
       <c r="N19">
-        <v>0.106694</v>
+        <v>1.552945</v>
       </c>
       <c r="O19">
-        <v>0.01914578269786067</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P19">
-        <v>0.02421928699130962</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q19">
-        <v>0.08051911662666666</v>
+        <v>0.1129948664416667</v>
       </c>
       <c r="R19">
-        <v>0.48311469976</v>
+        <v>0.67796919865</v>
       </c>
       <c r="S19">
-        <v>0.001880182554944798</v>
+        <v>0.004004493682176471</v>
       </c>
       <c r="T19">
-        <v>0.00188175994198001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.26402</v>
-      </c>
-      <c r="H20">
-        <v>4.52804</v>
-      </c>
-      <c r="I20">
-        <v>0.09820348348333063</v>
-      </c>
-      <c r="J20">
-        <v>0.07769675228900108</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.095428</v>
-      </c>
-      <c r="N20">
-        <v>2.190856</v>
-      </c>
-      <c r="O20">
-        <v>0.5897096307895137</v>
-      </c>
-      <c r="P20">
-        <v>0.4973191577842487</v>
-      </c>
-      <c r="Q20">
-        <v>2.48007090056</v>
-      </c>
-      <c r="R20">
-        <v>9.92028360224</v>
-      </c>
-      <c r="S20">
-        <v>0.05791153998719901</v>
-      </c>
-      <c r="T20">
-        <v>0.03864008341093741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.26402</v>
-      </c>
-      <c r="H21">
-        <v>4.52804</v>
-      </c>
-      <c r="I21">
-        <v>0.09820348348333063</v>
-      </c>
-      <c r="J21">
-        <v>0.07769675228900108</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1854883333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.5564650000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.09985526804661032</v>
-      </c>
-      <c r="P21">
-        <v>0.1263162458584279</v>
-      </c>
-      <c r="Q21">
-        <v>0.4199492964333334</v>
-      </c>
-      <c r="R21">
-        <v>2.5196957786</v>
-      </c>
-      <c r="S21">
-        <v>0.009806135166338849</v>
-      </c>
-      <c r="T21">
-        <v>0.009814362064538834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H22">
-        <v>19.241697</v>
-      </c>
-      <c r="I22">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J22">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.07195549999999999</v>
-      </c>
-      <c r="N22">
-        <v>0.143911</v>
-      </c>
-      <c r="O22">
-        <v>0.03873632163709056</v>
-      </c>
-      <c r="P22">
-        <v>0.03266745843446078</v>
-      </c>
-      <c r="Q22">
-        <v>0.4615153094945</v>
-      </c>
-      <c r="R22">
-        <v>2.769091856967</v>
-      </c>
-      <c r="S22">
-        <v>0.01077673315487081</v>
-      </c>
-      <c r="T22">
-        <v>0.01078577434032151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H23">
-        <v>19.241697</v>
-      </c>
-      <c r="I23">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J23">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.4691353333333333</v>
-      </c>
-      <c r="N23">
-        <v>1.407406</v>
-      </c>
-      <c r="O23">
-        <v>0.2525529968289247</v>
-      </c>
-      <c r="P23">
-        <v>0.3194778509315529</v>
-      </c>
-      <c r="Q23">
-        <v>3.008986645331333</v>
-      </c>
-      <c r="R23">
-        <v>27.080879807982</v>
-      </c>
-      <c r="S23">
-        <v>0.07026212451938633</v>
-      </c>
-      <c r="T23">
-        <v>0.1054816068348809</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H24">
-        <v>19.241697</v>
-      </c>
-      <c r="I24">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J24">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03556466666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.106694</v>
-      </c>
-      <c r="O24">
-        <v>0.01914578269786067</v>
-      </c>
-      <c r="P24">
-        <v>0.02421928699130962</v>
-      </c>
-      <c r="Q24">
-        <v>0.2281081799686667</v>
-      </c>
-      <c r="R24">
-        <v>2.052973619718001</v>
-      </c>
-      <c r="S24">
-        <v>0.005326499328176379</v>
-      </c>
-      <c r="T24">
-        <v>0.007996452025670476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H25">
-        <v>19.241697</v>
-      </c>
-      <c r="I25">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J25">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.095428</v>
-      </c>
-      <c r="N25">
-        <v>2.190856</v>
-      </c>
-      <c r="O25">
-        <v>0.5897096307895137</v>
-      </c>
-      <c r="P25">
-        <v>0.4973191577842487</v>
-      </c>
-      <c r="Q25">
-        <v>7.025964553772001</v>
-      </c>
-      <c r="R25">
-        <v>42.15578732263201</v>
-      </c>
-      <c r="S25">
-        <v>0.1640616109452901</v>
-      </c>
-      <c r="T25">
-        <v>0.1641992511214531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H26">
-        <v>19.241697</v>
-      </c>
-      <c r="I26">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J26">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.1854883333333334</v>
-      </c>
-      <c r="N26">
-        <v>0.5564650000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.09985526804661032</v>
-      </c>
-      <c r="P26">
-        <v>0.1263162458584279</v>
-      </c>
-      <c r="Q26">
-        <v>1.189703435678334</v>
-      </c>
-      <c r="R26">
-        <v>10.707330921105</v>
-      </c>
-      <c r="S26">
-        <v>0.02778047920833102</v>
-      </c>
-      <c r="T26">
-        <v>0.04170567863670611</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.413146</v>
-      </c>
-      <c r="H27">
-        <v>1.239438</v>
-      </c>
-      <c r="I27">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J27">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.07195549999999999</v>
-      </c>
-      <c r="N27">
-        <v>0.143911</v>
-      </c>
-      <c r="O27">
-        <v>0.03873632163709056</v>
-      </c>
-      <c r="P27">
-        <v>0.03266745843446078</v>
-      </c>
-      <c r="Q27">
-        <v>0.029728127003</v>
-      </c>
-      <c r="R27">
-        <v>0.178368762018</v>
-      </c>
-      <c r="S27">
-        <v>0.000694174354164644</v>
-      </c>
-      <c r="T27">
-        <v>0.0006947567346486858</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.413146</v>
-      </c>
-      <c r="H28">
-        <v>1.239438</v>
-      </c>
-      <c r="I28">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J28">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.4691353333333333</v>
-      </c>
-      <c r="N28">
-        <v>1.407406</v>
-      </c>
-      <c r="O28">
-        <v>0.2525529968289247</v>
-      </c>
-      <c r="P28">
-        <v>0.3194778509315529</v>
-      </c>
-      <c r="Q28">
-        <v>0.1938213864253333</v>
-      </c>
-      <c r="R28">
-        <v>1.744392477828</v>
-      </c>
-      <c r="S28">
-        <v>0.004525876646433999</v>
-      </c>
-      <c r="T28">
-        <v>0.006794510474424947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.413146</v>
-      </c>
-      <c r="H29">
-        <v>1.239438</v>
-      </c>
-      <c r="I29">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J29">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.03556466666666667</v>
-      </c>
-      <c r="N29">
-        <v>0.106694</v>
-      </c>
-      <c r="O29">
-        <v>0.01914578269786067</v>
-      </c>
-      <c r="P29">
-        <v>0.02421928699130962</v>
-      </c>
-      <c r="Q29">
-        <v>0.01469339977466667</v>
-      </c>
-      <c r="R29">
-        <v>0.132240597972</v>
-      </c>
-      <c r="S29">
-        <v>0.0003431020493834964</v>
-      </c>
-      <c r="T29">
-        <v>0.0005150848444288963</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.413146</v>
-      </c>
-      <c r="H30">
-        <v>1.239438</v>
-      </c>
-      <c r="I30">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J30">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.095428</v>
-      </c>
-      <c r="N30">
-        <v>2.190856</v>
-      </c>
-      <c r="O30">
-        <v>0.5897096307895137</v>
-      </c>
-      <c r="P30">
-        <v>0.4973191577842487</v>
-      </c>
-      <c r="Q30">
-        <v>0.4525716964880001</v>
-      </c>
-      <c r="R30">
-        <v>2.715430178928</v>
-      </c>
-      <c r="S30">
-        <v>0.01056789299544674</v>
-      </c>
-      <c r="T30">
-        <v>0.01057675897357034</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.413146</v>
-      </c>
-      <c r="H31">
-        <v>1.239438</v>
-      </c>
-      <c r="I31">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J31">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.1854883333333334</v>
-      </c>
-      <c r="N31">
-        <v>0.5564650000000001</v>
-      </c>
-      <c r="O31">
-        <v>0.09985526804661032</v>
-      </c>
-      <c r="P31">
-        <v>0.1263162458584279</v>
-      </c>
-      <c r="Q31">
-        <v>0.07663376296333335</v>
-      </c>
-      <c r="R31">
-        <v>0.6897038666700002</v>
-      </c>
-      <c r="S31">
-        <v>0.001789456594655626</v>
-      </c>
-      <c r="T31">
-        <v>0.002686436800149267</v>
+        <v>0.00446330876568822</v>
       </c>
     </row>
   </sheetData>
